--- a/Component Dimension.xlsx
+++ b/Component Dimension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Semester 8 (Winter 2024-25)\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DF08A7-FCB7-481D-8745-D08143C45DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A13CB83-64DF-4BEB-9BD8-052D266BF0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Component</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>Heating Element</t>
+  </si>
+  <si>
+    <t>Vibration Motor</t>
+  </si>
+  <si>
+    <t>Diameter : 8</t>
+  </si>
+  <si>
+    <t>(All Dimensions mentioned in mm)</t>
+  </si>
+  <si>
+    <t>Vibration motor</t>
   </si>
 </sst>
 </file>
@@ -139,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -163,7 +175,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -172,7 +199,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -187,21 +214,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -209,36 +221,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -254,7 +236,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -267,7 +249,63 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -277,12 +315,79 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -292,12 +397,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -307,9 +408,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -326,48 +425,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,159 +790,184 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C4" s="12">
         <v>70</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D4" s="5">
         <v>40</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E4" s="5">
         <v>25</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="13">
         <v>70</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="1">
         <v>50</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="13">
         <v>7.6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="1">
         <v>24.4</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="13">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="13">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="1">
         <v>21</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C8:E8"/>
+  <mergeCells count="4">
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" location="tab-specification" xr:uid="{512DC3EC-E494-41B5-8176-D4D1AD67AB2C}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{3CAD71BA-CE1E-43F8-98B5-E029D934F279}"/>
-    <hyperlink ref="F7" r:id="rId3" location="tab-specification" xr:uid="{E0388102-6603-42CF-8CA9-8070C5FAAC17}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{ACFE67B5-FB57-4F75-8ECD-035C93C34D16}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{B5ACB84C-480B-4474-9A4E-C40E8C0B6ECB}"/>
-    <hyperlink ref="F9" r:id="rId6" xr:uid="{EEA1692C-049F-4390-905C-AA836F7726D2}"/>
-    <hyperlink ref="F10" r:id="rId7" location="tab-specification" xr:uid="{61F949F4-420D-4F30-BBE6-CA48B98EFDDF}"/>
+    <hyperlink ref="F4" r:id="rId1" location="tab-specification" xr:uid="{512DC3EC-E494-41B5-8176-D4D1AD67AB2C}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{3CAD71BA-CE1E-43F8-98B5-E029D934F279}"/>
+    <hyperlink ref="F8" r:id="rId3" location="tab-specification" xr:uid="{E0388102-6603-42CF-8CA9-8070C5FAAC17}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{ACFE67B5-FB57-4F75-8ECD-035C93C34D16}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{B5ACB84C-480B-4474-9A4E-C40E8C0B6ECB}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{EEA1692C-049F-4390-905C-AA836F7726D2}"/>
+    <hyperlink ref="F11" r:id="rId7" location="tab-specification" xr:uid="{61F949F4-420D-4F30-BBE6-CA48B98EFDDF}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{5CBEE801-55CA-47A0-9046-09A650FB34A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>